--- a/docs/Timesheet.xlsx
+++ b/docs/Timesheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Evi\Documents\Artevelde\semester 3\NMDAD I\Website\appdata.local\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Evi\Documents\Artevelde\semester 3\NMDAD I\Website\nmdad1.local\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="69">
   <si>
     <t>Datum</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>Afwerkingen</t>
+  </si>
+  <si>
+    <t>12u10</t>
+  </si>
+  <si>
+    <t>Dossier verbeteren + website verbeteren</t>
   </si>
 </sst>
 </file>
@@ -608,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42727</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42727</v>
       </c>
@@ -1745,11 +1751,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>42928</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
       <c r="D67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" t="s">
+        <v>67</v>
+      </c>
+      <c r="H67" t="s">
         <v>36</v>
       </c>
-      <c r="E67">
+      <c r="I67">
         <f>SUM(E4:E66)</f>
         <v>164.25</v>
       </c>
